--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.137719</v>
+        <v>5.270858666666666</v>
       </c>
       <c r="H2">
-        <v>9.413157</v>
+        <v>15.812576</v>
       </c>
       <c r="I2">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="J2">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N2">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O2">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P2">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q2">
-        <v>0.6452363515346667</v>
+        <v>1.861029507168</v>
       </c>
       <c r="R2">
-        <v>5.807127163812</v>
+        <v>16.749265564512</v>
       </c>
       <c r="S2">
-        <v>8.407817028296693E-05</v>
+        <v>0.0003699075375411731</v>
       </c>
       <c r="T2">
-        <v>8.407817028296693E-05</v>
+        <v>0.0003699075375411732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.137719</v>
+        <v>5.270858666666666</v>
       </c>
       <c r="H3">
-        <v>9.413157</v>
+        <v>15.812576</v>
       </c>
       <c r="I3">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="J3">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N3">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O3">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P3">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q3">
-        <v>9.334559230862666</v>
+        <v>128.3933469929067</v>
       </c>
       <c r="R3">
-        <v>84.011033077764</v>
+        <v>1155.54012293616</v>
       </c>
       <c r="S3">
-        <v>0.001216349107830366</v>
+        <v>0.02552010413584921</v>
       </c>
       <c r="T3">
-        <v>0.001216349107830366</v>
+        <v>0.02552010413584921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.137719</v>
+        <v>5.270858666666666</v>
       </c>
       <c r="H4">
-        <v>9.413157</v>
+        <v>15.812576</v>
       </c>
       <c r="I4">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="J4">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N4">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O4">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P4">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q4">
-        <v>144.146569255637</v>
+        <v>3.555517449998221</v>
       </c>
       <c r="R4">
-        <v>1297.319123300733</v>
+        <v>31.999657049984</v>
       </c>
       <c r="S4">
-        <v>0.0187831633582873</v>
+        <v>0.0007067124403712026</v>
       </c>
       <c r="T4">
-        <v>0.0187831633582873</v>
+        <v>0.0007067124403712026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>7.548092</v>
       </c>
       <c r="I5">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="J5">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N5">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O5">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P5">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q5">
-        <v>0.5173931915857778</v>
+        <v>0.8883575917559999</v>
       </c>
       <c r="R5">
-        <v>4.656538724272</v>
+        <v>7.995218325803999</v>
       </c>
       <c r="S5">
-        <v>6.741943903490618E-05</v>
+        <v>0.0001765744003288413</v>
       </c>
       <c r="T5">
-        <v>6.741943903490619E-05</v>
+        <v>0.0001765744003288413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>7.548092</v>
       </c>
       <c r="I6">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="J6">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N6">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O6">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P6">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q6">
-        <v>7.485067109153778</v>
+        <v>61.28823003224667</v>
       </c>
       <c r="R6">
-        <v>67.365603982384</v>
+        <v>551.59407029022</v>
       </c>
       <c r="S6">
-        <v>0.0009753491809412634</v>
+        <v>0.012181955290964</v>
       </c>
       <c r="T6">
-        <v>0.0009753491809412636</v>
+        <v>0.012181955290964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>7.548092</v>
       </c>
       <c r="I7">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="J7">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N7">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O7">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P7">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q7">
-        <v>115.5862550923054</v>
+        <v>1.697217001214222</v>
       </c>
       <c r="R7">
-        <v>1040.276295830748</v>
+        <v>15.274953010928</v>
       </c>
       <c r="S7">
-        <v>0.0150615829608899</v>
+        <v>0.000337347344130795</v>
       </c>
       <c r="T7">
-        <v>0.0150615829608899</v>
+        <v>0.000337347344130795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.661911</v>
+        <v>114.018682</v>
       </c>
       <c r="H8">
-        <v>217.985733</v>
+        <v>342.056046</v>
       </c>
       <c r="I8">
-        <v>0.4650869231382975</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="J8">
-        <v>0.4650869231382976</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N8">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O8">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P8">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q8">
-        <v>14.942098495492</v>
+        <v>40.257602221878</v>
       </c>
       <c r="R8">
-        <v>134.478886459428</v>
+        <v>362.318419996902</v>
       </c>
       <c r="S8">
-        <v>0.00194704513888713</v>
+        <v>0.008001802468929179</v>
       </c>
       <c r="T8">
-        <v>0.00194704513888713</v>
+        <v>0.008001802468929179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.661911</v>
+        <v>114.018682</v>
       </c>
       <c r="H9">
-        <v>217.985733</v>
+        <v>342.056046</v>
       </c>
       <c r="I9">
-        <v>0.4650869231382975</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="J9">
-        <v>0.4650869231382976</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N9">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O9">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P9">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q9">
-        <v>216.165600570724</v>
+        <v>2777.39190661279</v>
       </c>
       <c r="R9">
-        <v>1945.490405136516</v>
+        <v>24996.52715951511</v>
       </c>
       <c r="S9">
-        <v>0.02816767550507213</v>
+        <v>0.5520483135838734</v>
       </c>
       <c r="T9">
-        <v>0.02816767550507214</v>
+        <v>0.5520483135838734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>72.661911</v>
+        <v>114.018682</v>
       </c>
       <c r="H10">
-        <v>217.985733</v>
+        <v>342.056046</v>
       </c>
       <c r="I10">
-        <v>0.4650869231382975</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="J10">
-        <v>0.4650869231382976</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N10">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O10">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P10">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q10">
-        <v>3338.082596372853</v>
+        <v>76.91259415482934</v>
       </c>
       <c r="R10">
-        <v>30042.74336735568</v>
+        <v>692.213347393464</v>
       </c>
       <c r="S10">
-        <v>0.4349722024943383</v>
+        <v>0.01528753208916652</v>
       </c>
       <c r="T10">
-        <v>0.4349722024943384</v>
+        <v>0.01528753208916652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.972004</v>
+        <v>1.265015666666667</v>
       </c>
       <c r="H11">
-        <v>2.916012</v>
+        <v>3.795047</v>
       </c>
       <c r="I11">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="J11">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N11">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O11">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P11">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q11">
-        <v>0.1998816065546667</v>
+        <v>0.446650466571</v>
       </c>
       <c r="R11">
-        <v>1.798934458992</v>
+        <v>4.019854199139</v>
       </c>
       <c r="S11">
-        <v>2.604577332378233E-05</v>
+        <v>8.877848179974071E-05</v>
       </c>
       <c r="T11">
-        <v>2.604577332378233E-05</v>
+        <v>8.877848179974071E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.972004</v>
+        <v>1.265015666666667</v>
       </c>
       <c r="H12">
-        <v>2.916012</v>
+        <v>3.795047</v>
       </c>
       <c r="I12">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="J12">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N12">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O12">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P12">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q12">
-        <v>2.891663947802666</v>
+        <v>30.81463680082167</v>
       </c>
       <c r="R12">
-        <v>26.024975530224</v>
+        <v>277.331731207395</v>
       </c>
       <c r="S12">
-        <v>0.0003768011725102046</v>
+        <v>0.006124871408709255</v>
       </c>
       <c r="T12">
-        <v>0.0003768011725102046</v>
+        <v>0.006124871408709255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.972004</v>
+        <v>1.265015666666667</v>
       </c>
       <c r="H13">
-        <v>2.916012</v>
+        <v>3.795047</v>
       </c>
       <c r="I13">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="J13">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N13">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O13">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P13">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q13">
-        <v>44.653788915692</v>
+        <v>0.8533306547942222</v>
       </c>
       <c r="R13">
-        <v>401.884100241228</v>
+        <v>7.679975893148</v>
       </c>
       <c r="S13">
-        <v>0.00581865677484462</v>
+        <v>0.0001696122710615533</v>
       </c>
       <c r="T13">
-        <v>0.00581865677484462</v>
+        <v>0.0001696122710615533</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.94530466666667</v>
+        <v>75.10640066666666</v>
       </c>
       <c r="H14">
-        <v>230.835914</v>
+        <v>225.319202</v>
       </c>
       <c r="I14">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="J14">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N14">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O14">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P14">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q14">
-        <v>15.82292985791378</v>
+        <v>26.518492840986</v>
       </c>
       <c r="R14">
-        <v>142.406368721224</v>
+        <v>238.666435568874</v>
       </c>
       <c r="S14">
-        <v>0.002061822753483906</v>
+        <v>0.005270948337105995</v>
       </c>
       <c r="T14">
-        <v>0.002061822753483906</v>
+        <v>0.005270948337105996</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.94530466666667</v>
+        <v>75.10640066666666</v>
       </c>
       <c r="H15">
-        <v>230.835914</v>
+        <v>225.319202</v>
       </c>
       <c r="I15">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="J15">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N15">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O15">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P15">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q15">
-        <v>228.9084854149698</v>
+        <v>1829.523948947397</v>
       </c>
       <c r="R15">
-        <v>2060.176368734728</v>
+        <v>16465.71554052657</v>
       </c>
       <c r="S15">
-        <v>0.0298281499022174</v>
+        <v>0.3636453351336584</v>
       </c>
       <c r="T15">
-        <v>0.0298281499022174</v>
+        <v>0.3636453351336584</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.94530466666667</v>
+        <v>75.10640066666666</v>
       </c>
       <c r="H16">
-        <v>230.835914</v>
+        <v>225.319202</v>
       </c>
       <c r="I16">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="J16">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N16">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O16">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P16">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q16">
-        <v>3534.861371598208</v>
+        <v>50.66387377557421</v>
       </c>
       <c r="R16">
-        <v>31813.75234438387</v>
+        <v>455.9748639801679</v>
       </c>
       <c r="S16">
-        <v>0.4606136582680558</v>
+        <v>0.01007020507651074</v>
       </c>
       <c r="T16">
-        <v>0.4606136582680558</v>
+        <v>0.01007020507651074</v>
       </c>
     </row>
   </sheetData>
